--- a/Matlab_models_control/Datos_motores_modelo.xlsx
+++ b/Matlab_models_control/Datos_motores_modelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AGH\2022-1\3_Embedded_Systems_I\Matlab_models_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E84BD187-8D2F-4B96-90AB-4253380C9095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42C58A8-AE45-4CE1-980F-AC2D64E8610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8A9A8E5F-802A-4CDF-A65C-2518BC1EFFDB}"/>
+    <workbookView minimized="1" xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{8A9A8E5F-802A-4CDF-A65C-2518BC1EFFDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33937,6 +33937,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>Step response to 5v</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -35275,6 +35300,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Samples</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -35339,6 +35419,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Speed (RPS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -38405,16 +38540,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -76637,8 +76772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C2FFEC-79AD-4B2E-ACA8-E26EB139EC98}">
   <dimension ref="B3:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C203"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -78253,6 +78388,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>